--- a/data/swactivity-0510.xlsx
+++ b/data/swactivity-0510.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/LinearRegression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D12E32-7D1E-8940-BF2F-213A067D7969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECAE657-DC31-4444-B68E-4BE2408CDB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:AW481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I31"/>
+      <selection activeCell="G2" sqref="G2:G481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>IF(AND($F2&gt;6, $F2&lt;11),1,0)</f>
+        <f>IF(AND($F2&gt;6, $F2&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="1">IF(AND($F3&gt;6, $F3&lt;11),1,0)</f>
+        <f t="shared" ref="G3:G66" si="1">IF(AND($F3&gt;6, $F3&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
@@ -10817,7 +10817,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="5">IF(AND($F67&gt;6, $F67&lt;11),1,0)</f>
+        <f t="shared" ref="G67:G130" si="5">IF(AND($F67&gt;6, $F67&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="2">
@@ -13572,7 +13572,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="6"/>
@@ -17244,7 +17244,7 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="6"/>
@@ -20609,7 +20609,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G194" si="9">IF(AND($F131&gt;6, $F131&lt;11),1,0)</f>
+        <f t="shared" ref="G131:G194" si="9">IF(AND($F131&gt;6, $F131&lt;=11),1,0)</f>
         <v>1</v>
       </c>
       <c r="H131" s="2">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="10"/>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="G157" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" s="2">
         <f t="shared" si="10"/>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="G181" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="2">
         <f t="shared" si="10"/>
@@ -30401,7 +30401,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" ref="G195:G258" si="13">IF(AND($F195&gt;6, $F195&lt;11),1,0)</f>
+        <f t="shared" ref="G195:G258" si="13">IF(AND($F195&gt;6, $F195&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H195" s="2">
@@ -31932,7 +31932,7 @@
       </c>
       <c r="G205" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="2">
         <f t="shared" si="14"/>
@@ -35604,7 +35604,7 @@
       </c>
       <c r="G229" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" s="2">
         <f t="shared" si="14"/>
@@ -39276,7 +39276,7 @@
       </c>
       <c r="G253" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="2">
         <f t="shared" si="14"/>
@@ -40193,7 +40193,7 @@
         <v>17</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" ref="G259:G322" si="17">IF(AND($F259&gt;6, $F259&lt;11),1,0)</f>
+        <f t="shared" ref="G259:G322" si="17">IF(AND($F259&gt;6, $F259&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H259" s="2">
@@ -42948,7 +42948,7 @@
       </c>
       <c r="G277" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" s="2">
         <f t="shared" si="18"/>
@@ -46620,7 +46620,7 @@
       </c>
       <c r="G301" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" s="2">
         <f t="shared" si="18"/>
@@ -49985,7 +49985,7 @@
         <v>9</v>
       </c>
       <c r="G323" s="2">
-        <f t="shared" ref="G323:G386" si="21">IF(AND($F323&gt;6, $F323&lt;11),1,0)</f>
+        <f t="shared" ref="G323:G386" si="21">IF(AND($F323&gt;6, $F323&lt;=11),1,0)</f>
         <v>1</v>
       </c>
       <c r="H323" s="2">
@@ -50292,7 +50292,7 @@
       </c>
       <c r="G325" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H325" s="2">
         <f t="shared" si="22"/>
@@ -53964,7 +53964,7 @@
       </c>
       <c r="G349" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349" s="2">
         <f t="shared" si="22"/>
@@ -57636,7 +57636,7 @@
       </c>
       <c r="G373" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H373" s="2">
         <f t="shared" si="22"/>
@@ -59777,7 +59777,7 @@
         <v>1</v>
       </c>
       <c r="G387" s="2">
-        <f t="shared" ref="G387:G450" si="25">IF(AND($F387&gt;6, $F387&lt;11),1,0)</f>
+        <f t="shared" ref="G387:G450" si="25">IF(AND($F387&gt;6, $F387&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H387" s="2">
@@ -61308,7 +61308,7 @@
       </c>
       <c r="G397" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H397" s="2">
         <f t="shared" si="26"/>
@@ -64980,7 +64980,7 @@
       </c>
       <c r="G421" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H421" s="2">
         <f t="shared" si="26"/>
@@ -68652,7 +68652,7 @@
       </c>
       <c r="G445" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H445" s="2">
         <f t="shared" si="26"/>
@@ -69569,7 +69569,7 @@
         <v>17</v>
       </c>
       <c r="G451" s="2">
-        <f t="shared" ref="G451:G481" si="29">IF(AND($F451&gt;6, $F451&lt;11),1,0)</f>
+        <f t="shared" ref="G451:G481" si="29">IF(AND($F451&gt;6, $F451&lt;=11),1,0)</f>
         <v>0</v>
       </c>
       <c r="H451" s="2">
@@ -72324,7 +72324,7 @@
       </c>
       <c r="G469" s="2">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H469" s="2">
         <f t="shared" si="30"/>
